--- a/generated_docs/WR_89700562_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I55"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17501.72</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>2858.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>2858.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1305,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-XAL-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>188.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,138 +1373,138 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="inlineStr">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>PIN-XAL-C</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Pin,Crossarm Light,Corrosive</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H35" s="16" t="n">
-        <v>8521.82</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="H37" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>Saturday (08/09/2025)</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C39" s="8" t="inlineStr">
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G39" s="8" t="inlineStr">
+      <c r="G41" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H39" s="8" t="inlineStr">
+      <c r="H41" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>539.6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>22</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>2620.2</v>
       </c>
     </row>
     <row r="42">
@@ -1515,17 +1515,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1534,11 +1534,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>357.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,138 +1568,138 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>107.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>PLA-DLOC</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Difficult Location</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H44" s="16" t="n">
-        <v>3625.02</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
+      <c r="H46" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>Sunday (08/10/2025)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C48" s="8" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D48" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E48" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G48" s="8" t="inlineStr">
+      <c r="G50" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H48" s="8" t="inlineStr">
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>PLA-ROCK</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Rock Hole</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>1726.7</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1729,22 +1729,22 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>238.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PLA-ROCK</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>PLA,Rock Hole</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>357.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>1905.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>POL-45-2</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>Pole,45ft,Class 2</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,40 +1831,108 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="inlineStr">
+        <is>
+          <t>POL-45-2</t>
+        </is>
+      </c>
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
+        <is>
+          <t>Pole,45ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H55" s="16" t="n">
-        <v>5354.88</v>
+      <c r="H57" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A44:G44"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A40:H40"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89700562_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89700562_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:01 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>17501.72</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P23</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -765,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>2858.4</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +829,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +863,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +897,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +931,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +999,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1033,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="25">
@@ -1071,7 +1067,7 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="26">
@@ -1105,7 +1101,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="27">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>2858.4</v>
       </c>
     </row>
     <row r="28">
@@ -1173,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>350.53</v>
       </c>
     </row>
     <row r="29">
@@ -1207,7 +1203,7 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="30">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CND-S620A</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1241,7 +1237,7 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="31">
@@ -1252,7 +1248,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>CND-S620A</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1262,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #6-2/0 AL or ACSR</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1275,7 +1271,7 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="32">
@@ -1286,7 +1282,7 @@
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1296,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,11 +1301,11 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="33">
@@ -1320,7 +1316,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-XAL-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1330,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1343,7 +1339,7 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="34">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1364,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,138 +1369,138 @@
         </is>
       </c>
       <c r="F34" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>PIN-XAL-C</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Pin,Crossarm Light,Corrosive</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="15" t="inlineStr">
+      <c r="A35" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H37" s="16" t="n">
-        <v>0</v>
+      <c r="H35" s="16" t="n">
+        <v>8521.82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>Saturday (08/09/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>Saturday (08/09/2025)</t>
-        </is>
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>CNA-TM</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>CNA,Trim Trees Minor</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>539.6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D41" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E41" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F41" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G41" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H41" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>PLA-BACK</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>Difficult Location Equip Adder-Backyard</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>2620.2</v>
       </c>
     </row>
     <row r="42">
@@ -1515,17 +1511,17 @@
       </c>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>CNA-TM</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C42" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D42" s="9" t="inlineStr">
         <is>
-          <t>CNA,Trim Trees Minor</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E42" s="9" t="inlineStr">
@@ -1534,11 +1530,11 @@
         </is>
       </c>
       <c r="F42" s="10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="10" t="inlineStr"/>
       <c r="H42" s="11" t="n">
-        <v>0</v>
+        <v>357.3</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1545,7 @@
       </c>
       <c r="B43" s="12" t="inlineStr">
         <is>
-          <t>PLA-BACK</t>
+          <t>CNA-TM</t>
         </is>
       </c>
       <c r="C43" s="12" t="inlineStr">
@@ -1559,7 +1555,7 @@
       </c>
       <c r="D43" s="12" t="inlineStr">
         <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
+          <t>CNA,Trim Trees Minor</t>
         </is>
       </c>
       <c r="E43" s="12" t="inlineStr">
@@ -1568,138 +1564,138 @@
         </is>
       </c>
       <c r="F43" s="13" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G43" s="13" t="inlineStr"/>
       <c r="H43" s="14" t="n">
-        <v>0</v>
+        <v>107.92</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="inlineStr">
+      <c r="A44" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H44" s="16" t="n">
+        <v>3625.02</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (08/10/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D48" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F48" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H48" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>PLA-DLOC</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Difficult Location</t>
-        </is>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="inlineStr"/>
+      <c r="H49" s="11" t="n">
+        <v>648.53</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>Point 02</t>
         </is>
       </c>
-      <c r="B45" s="12" t="inlineStr">
-        <is>
-          <t>CNA-TM</t>
-        </is>
-      </c>
-      <c r="C45" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="12" t="inlineStr">
-        <is>
-          <t>CNA,Trim Trees Minor</t>
-        </is>
-      </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="inlineStr"/>
-      <c r="H45" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H46" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (08/10/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D50" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E50" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F50" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G50" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H50" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="B50" s="12" t="inlineStr">
+        <is>
+          <t>PLA-ROCK</t>
+        </is>
+      </c>
+      <c r="C50" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Rock Hole</t>
+        </is>
+      </c>
+      <c r="E50" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="13" t="inlineStr"/>
+      <c r="H50" s="14" t="n">
+        <v>1726.7</v>
       </c>
     </row>
     <row r="51">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
@@ -1720,7 +1716,7 @@
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1729,22 +1725,22 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>238.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>PLA-ROCK</t>
+          <t>PLA-DLOC</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1754,7 +1750,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>PLA,Rock Hole</t>
+          <t>PLA,Difficult Location</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1763,22 +1759,22 @@
         </is>
       </c>
       <c r="F52" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
-        <v>0</v>
+        <v>357.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B53" s="9" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>PLA-BACK</t>
         </is>
       </c>
       <c r="C53" s="9" t="inlineStr">
@@ -1788,7 +1784,7 @@
       </c>
       <c r="D53" s="9" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Difficult Location Equip Adder-Backyard</t>
         </is>
       </c>
       <c r="E53" s="9" t="inlineStr">
@@ -1797,22 +1793,22 @@
         </is>
       </c>
       <c r="F53" s="10" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G53" s="10" t="inlineStr"/>
       <c r="H53" s="11" t="n">
-        <v>0</v>
+        <v>1905.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B54" s="12" t="inlineStr">
         <is>
-          <t>PLA-DLOC</t>
+          <t>POL-45-2</t>
         </is>
       </c>
       <c r="C54" s="12" t="inlineStr">
@@ -1822,7 +1818,7 @@
       </c>
       <c r="D54" s="12" t="inlineStr">
         <is>
-          <t>PLA,Difficult Location</t>
+          <t>Pole,45ft,Class 2</t>
         </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
@@ -1831,108 +1827,40 @@
         </is>
       </c>
       <c r="F54" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" s="13" t="inlineStr"/>
       <c r="H54" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="inlineStr">
-        <is>
-          <t>PLA-BACK</t>
-        </is>
-      </c>
-      <c r="C55" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="inlineStr">
-        <is>
-          <t>Difficult Location Equip Adder-Backyard</t>
-        </is>
-      </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B56" s="12" t="inlineStr">
-        <is>
-          <t>POL-45-2</t>
-        </is>
-      </c>
-      <c r="C56" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="12" t="inlineStr">
-        <is>
-          <t>Pole,45ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E56" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13" t="inlineStr"/>
-      <c r="H56" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="15" t="inlineStr">
+      <c r="A55" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H57" s="16" t="n">
-        <v>0</v>
+      <c r="H55" s="16" t="n">
+        <v>5354.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A55:G55"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A49:H49"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A37:G37"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
